--- a/outputs-r202/g__Acidaminococcus.xlsx
+++ b/outputs-r202/g__Acidaminococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -569,6 +574,11 @@
           <t>s__Acidaminococcus fermentans</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus fermentans</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -623,6 +633,11 @@
           <t>s__Acidaminococcus provencensis</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus provencensis</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -673,6 +688,11 @@
         <v>0.996441226035487</v>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900314165</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>s__Acidaminococcus sp900314165</t>
         </is>

--- a/outputs-r202/g__Acidaminococcus.xlsx
+++ b/outputs-r202/g__Acidaminococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,46 +528,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9865115179204685</v>
+        <v>0.9948297453590468</v>
       </c>
       <c r="C2" t="n">
-        <v>5.485523713881988e-14</v>
+        <v>2.220045574985255e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004526295578767538</v>
+        <v>0.0005888528890085403</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00713976173825827</v>
+        <v>0.004047259799259671</v>
       </c>
       <c r="F2" t="n">
-        <v>5.485523713881597e-14</v>
+        <v>2.220045574985255e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001822424762011878</v>
+        <v>0.0005341419524852068</v>
       </c>
       <c r="H2" t="n">
-        <v>5.485523713881595e-14</v>
+        <v>2.220045574985255e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>5.485523713881615e-14</v>
+        <v>2.220045574985255e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>5.485523713881615e-14</v>
+        <v>2.220045574985255e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>5.485523713881615e-14</v>
+        <v>2.220045574985255e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>5.485523713881615e-14</v>
+        <v>2.220045574985255e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>5.485523713881615e-14</v>
+        <v>2.220045574985255e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>5.485523713881615e-14</v>
+        <v>2.220045574985255e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9865115179204685</v>
+        <v>0.9948297453590468</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -583,116 +583,57 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG720.fasta</t>
+          <t>hRUG887.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.000730570135451289</v>
+        <v>2.659674610396928e-11</v>
       </c>
       <c r="C3" t="n">
-        <v>2.253106930022251e-13</v>
+        <v>1.075682230266195e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>2.225646910470117e-09</v>
+        <v>6.415378710257417e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>6.72886921943346e-05</v>
+        <v>0.0002496295078241123</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9286117353372135</v>
+        <v>6.270164775076517e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>7.386286937842078e-06</v>
+        <v>2.859418479485624e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>2.22169382326911e-14</v>
+        <v>0.9995938451635675</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04389921196727988</v>
+        <v>2.220376759333041e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.22169382326911e-14</v>
+        <v>2.220376759333041e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.22169382326911e-14</v>
+        <v>2.220376759333041e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02668380535493989</v>
+        <v>2.220376759333041e-14</v>
       </c>
       <c r="M3" t="n">
-        <v>2.22169382326911e-14</v>
+        <v>2.220376759333041e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.22169382326911e-14</v>
+        <v>2.220376759333041e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9286117353372135</v>
+        <v>0.9995938451635675</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>s__Acidaminococcus provencensis</t>
+          <t>s__Acidaminococcus sp900314165</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
-        <is>
-          <t>s__Acidaminococcus provencensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>hRUG887.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.111668463033216e-11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.088717325452e-06</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.022233814973363e-06</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.931525025178492e-05</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.003468412346524451</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.293540534634059e-05</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.996441226035487</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.22003803508205e-14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.22003803508205e-14</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.22003803508205e-14</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.22003803508205e-14</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.22003803508205e-14</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.22003803508205e-14</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.996441226035487</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>s__Acidaminococcus sp900314165</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
         <is>
           <t>s__Acidaminococcus sp900314165</t>
         </is>
